--- a/Blog Post Data Analysis/Model_Summary_3v3_V1.xlsx
+++ b/Blog Post Data Analysis/Model_Summary_3v3_V1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="212">
   <si>
     <t>Categorical Variable</t>
   </si>
@@ -170,121 +170,97 @@
     <t>Linear</t>
   </si>
   <si>
-    <t>-27799.1132</t>
+    <t>-28999.9373</t>
   </si>
   <si>
     <t>First Order</t>
   </si>
   <si>
-    <t>-27923.7041</t>
+    <t>-29097.6402</t>
   </si>
   <si>
     <t>1.0</t>
   </si>
   <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>Second Order</t>
+  </si>
+  <si>
+    <t>-29009.3846</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>Second Order</t>
-  </si>
-  <si>
-    <t>-27806.0846</t>
-  </si>
-  <si>
-    <t>-29910.4714</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>-27793.3498</t>
-  </si>
-  <si>
-    <t>0.0007</t>
-  </si>
-  <si>
-    <t>-27768.4219</t>
+    <t>-31266.4354</t>
+  </si>
+  <si>
+    <t>-29007.3522</t>
+  </si>
+  <si>
+    <t>-29053.4018</t>
+  </si>
+  <si>
+    <t>-29011.3285</t>
+  </si>
+  <si>
+    <t>-29007.4138</t>
+  </si>
+  <si>
+    <t>-28994.3664</t>
+  </si>
+  <si>
+    <t>0.0008</t>
+  </si>
+  <si>
+    <t>-28987.2714</t>
+  </si>
+  <si>
+    <t>0.5, 3</t>
+  </si>
+  <si>
+    <t>-28941.7918</t>
   </si>
   <si>
     <t>&lt;0.0001</t>
   </si>
   <si>
-    <t>3, 2</t>
-  </si>
-  <si>
-    <t>-27816.4626</t>
-  </si>
-  <si>
-    <t>-27788.1901</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>-27748.8135</t>
-  </si>
-  <si>
-    <t>0.5, 1</t>
-  </si>
-  <si>
-    <t>-27768.8947</t>
-  </si>
-  <si>
-    <t>-27737.358</t>
-  </si>
-  <si>
-    <t>2, 3</t>
-  </si>
-  <si>
-    <t>-27741.6938</t>
-  </si>
-  <si>
-    <t>-27720.9208</t>
-  </si>
-  <si>
-    <t>0.5, 2</t>
-  </si>
-  <si>
-    <t>-27682.8803</t>
-  </si>
-  <si>
-    <t>-27495.9233</t>
-  </si>
-  <si>
-    <t>1, 0.5</t>
-  </si>
-  <si>
-    <t>-29054.2663</t>
-  </si>
-  <si>
-    <t>-27943.7264</t>
-  </si>
-  <si>
-    <t>-29544.1822</t>
-  </si>
-  <si>
-    <t>-28368.5626</t>
-  </si>
-  <si>
-    <t>-27945.0478</t>
+    <t>-28843.7425</t>
+  </si>
+  <si>
+    <t>2, 0.5</t>
+  </si>
+  <si>
+    <t>-30699.4591</t>
+  </si>
+  <si>
+    <t>Received_2</t>
+  </si>
+  <si>
+    <t>-31488.7699</t>
+  </si>
+  <si>
+    <t>-28383.18</t>
+  </si>
+  <si>
+    <t>-26218.6241</t>
+  </si>
+  <si>
+    <t>1, 2</t>
   </si>
   <si>
     <t>Transformations</t>
   </si>
   <si>
-    <t>Ultimates_3 | Ultimates_2</t>
-  </si>
-  <si>
-    <t>Num_EX1_0.5 | Num_EX1_1</t>
-  </si>
-  <si>
-    <t>Num_EX2_2 | Num_EX2_3</t>
-  </si>
-  <si>
-    <t>Control_Received_0.5 | Control_Received_2</t>
-  </si>
-  <si>
-    <t>Control_1 | Control_0.5</t>
+    <t>Control_Received_0.5 | Control_Received_3</t>
+  </si>
+  <si>
+    <t>Control_2 | Control_0.5</t>
+  </si>
+  <si>
+    <t>ScorePerSecond_1 | ScorePerSecond_2</t>
   </si>
   <si>
     <t>Interaction Terms</t>
@@ -299,82 +275,76 @@
     <t>TeamRatioUltimatesAll20 x EnemyRatioUltimatesAll20</t>
   </si>
   <si>
-    <t>TeamRatioUltimatesAll20_TeamRatioREX50</t>
-  </si>
-  <si>
-    <t>TeamRatioUltimatesAll20 x TeamRatioREX50</t>
-  </si>
-  <si>
-    <t>TeamRatioUltimatesAll20_First_Orb</t>
-  </si>
-  <si>
-    <t>TeamRatioUltimatesAll20 x First_Orb</t>
-  </si>
-  <si>
-    <t>TeamRatioUltimatesAll20_Ultimates_3 | TeamRatioUltimatesAll20_Ultimates_2</t>
-  </si>
-  <si>
-    <t>TeamRatioUltimatesAll20 x Ultimates</t>
-  </si>
-  <si>
-    <t>TeamRatioUltimatesAll20_Num_R</t>
-  </si>
-  <si>
-    <t>TeamRatioUltimatesAll20 x Num_R</t>
-  </si>
-  <si>
-    <t>EnemyRatioUltimatesAll20_First_Orb</t>
-  </si>
-  <si>
-    <t>EnemyRatioUltimatesAll20 x First_Orb</t>
-  </si>
-  <si>
-    <t>EnemyRatioUltimatesAll20_Num_R</t>
-  </si>
-  <si>
-    <t>EnemyRatioUltimatesAll20 x Num_R</t>
-  </si>
-  <si>
-    <t>EnemyRatioUltimatesAll20_Protection</t>
-  </si>
-  <si>
-    <t>EnemyRatioUltimatesAll20 x Protection</t>
-  </si>
-  <si>
-    <t>TeamRatioREX50_Num_R</t>
-  </si>
-  <si>
-    <t>TeamRatioREX50 x Num_R</t>
-  </si>
-  <si>
-    <t>TeamRatioREX50_Num_EX1_0.5 | TeamRatioREX50_Num_EX1_1</t>
-  </si>
-  <si>
-    <t>TeamRatioREX50 x Num_EX1</t>
-  </si>
-  <si>
-    <t>TeamRatioREX50_Protection_Received</t>
-  </si>
-  <si>
-    <t>TeamRatioREX50 x Protection_Received</t>
-  </si>
-  <si>
-    <t>EnemyRatioREX50_NetHealthShards</t>
-  </si>
-  <si>
-    <t>EnemyRatioREX50 x NetHealthShards</t>
-  </si>
-  <si>
-    <t>NetHealthShards_Ultimates_3 | NetHealthShards_Ultimates_2</t>
-  </si>
-  <si>
-    <t>NetHealthShards x Ultimates</t>
-  </si>
-  <si>
-    <t>NetHealthShards_Num_EX2_2 | NetHealthShards_Num_EX2_3</t>
-  </si>
-  <si>
-    <t>NetHealthShards x Num_EX2</t>
+    <t>TeamRatioUltimatesAll20_NetHealthShards</t>
+  </si>
+  <si>
+    <t>TeamRatioUltimatesAll20 x NetHealthShards</t>
+  </si>
+  <si>
+    <t>TeamRatioUltimatesAll20_Control_Received_0.5 | TeamRatioUltimatesAll20_Control_Received_3</t>
+  </si>
+  <si>
+    <t>TeamRatioUltimatesAll20 x Control_Received</t>
+  </si>
+  <si>
+    <t>TeamRatioUltimatesAll20_Damage_Received</t>
+  </si>
+  <si>
+    <t>TeamRatioUltimatesAll20 x Damage_Received</t>
+  </si>
+  <si>
+    <t>EnemyRatioUltimatesAll20_NetHealthShards</t>
+  </si>
+  <si>
+    <t>EnemyRatioUltimatesAll20 x NetHealthShards</t>
+  </si>
+  <si>
+    <t>EnemyRatioUltimatesAll20_NetEnergyShards</t>
+  </si>
+  <si>
+    <t>EnemyRatioUltimatesAll20 x NetEnergyShards</t>
+  </si>
+  <si>
+    <t>EnemyRatioUltimatesAll20_Control_Received_0.5 | EnemyRatioUltimatesAll20_Control_Received_3</t>
+  </si>
+  <si>
+    <t>EnemyRatioUltimatesAll20 x Control_Received</t>
+  </si>
+  <si>
+    <t>EnemyRatioUltimatesAll20_Damage_Received</t>
+  </si>
+  <si>
+    <t>EnemyRatioUltimatesAll20 x Damage_Received</t>
+  </si>
+  <si>
+    <t>TeamRatioREX50_NetHealthShards</t>
+  </si>
+  <si>
+    <t>TeamRatioREX50 x NetHealthShards</t>
+  </si>
+  <si>
+    <t>TeamRatioREX50_NetOrbs</t>
+  </si>
+  <si>
+    <t>TeamRatioREX50 x NetOrbs</t>
+  </si>
+  <si>
+    <t>EnemyRatioREX50_NetOrbs</t>
+  </si>
+  <si>
+    <t>EnemyRatioREX50 x NetOrbs</t>
+  </si>
+  <si>
+    <t>NetHealthShards_Control_Received_0.5 | NetHealthShards_Control_Received_3</t>
+  </si>
+  <si>
+    <t>NetHealthShards x Control_Received</t>
+  </si>
+  <si>
+    <t>NetHealthShards_Control_2 | NetHealthShards_Control_0.5</t>
+  </si>
+  <si>
+    <t>NetHealthShards x Control</t>
   </si>
   <si>
     <t>NetHealthShards_Protection_Received</t>
@@ -383,31 +353,79 @@
     <t>NetHealthShards x Protection_Received</t>
   </si>
   <si>
+    <t>NetHealthShards_Protection</t>
+  </si>
+  <si>
+    <t>NetHealthShards x Protection</t>
+  </si>
+  <si>
+    <t>NetHealthShards_Damage_Received</t>
+  </si>
+  <si>
+    <t>NetHealthShards x Damage_Received</t>
+  </si>
+  <si>
+    <t>NetEnergyShards_Control_Received_0.5 | NetEnergyShards_Control_Received_3</t>
+  </si>
+  <si>
+    <t>NetEnergyShards x Control_Received</t>
+  </si>
+  <si>
+    <t>NetEnergyShards_Protection_Received</t>
+  </si>
+  <si>
+    <t>NetEnergyShards x Protection_Received</t>
+  </si>
+  <si>
+    <t>NetEnergyShards_Protection</t>
+  </si>
+  <si>
+    <t>NetEnergyShards x Protection</t>
+  </si>
+  <si>
+    <t>NetEnergyShards_ScorePerSecond_1 | NetEnergyShards_ScorePerSecond_2</t>
+  </si>
+  <si>
+    <t>NetEnergyShards x ScorePerSecond</t>
+  </si>
+  <si>
+    <t>NetOrbs_EnemyRatioUltimatesAll20</t>
+  </si>
+  <si>
+    <t>NetOrbs x EnemyRatioUltimatesAll20</t>
+  </si>
+  <si>
+    <t>NetOrbs_NetHealthShards</t>
+  </si>
+  <si>
+    <t>NetOrbs x NetHealthShards</t>
+  </si>
+  <si>
+    <t>NetOrbs_Ultimates</t>
+  </si>
+  <si>
+    <t>NetOrbs x Ultimates</t>
+  </si>
+  <si>
     <t>NetOrbs_Num_R</t>
   </si>
   <si>
     <t>NetOrbs x Num_R</t>
   </si>
   <si>
-    <t>NetOrbs_Num_EX1_0.5 | NetOrbs_Num_EX1_1</t>
+    <t>NetOrbs_Num_EX1</t>
   </si>
   <si>
     <t>NetOrbs x Num_EX1</t>
   </si>
   <si>
-    <t>NetOrbs_Num_EX2_2 | NetOrbs_Num_EX2_3</t>
+    <t>NetOrbs_Num_EX2</t>
   </si>
   <si>
     <t>NetOrbs x Num_EX2</t>
   </si>
   <si>
-    <t>NetOrbs_Control_Received_0.5 | NetOrbs_Control_Received_2</t>
-  </si>
-  <si>
-    <t>NetOrbs x Control_Received</t>
-  </si>
-  <si>
-    <t>NetOrbs_Control_1 | NetOrbs_Control_0.5</t>
+    <t>NetOrbs_Control_2 | NetOrbs_Control_0.5</t>
   </si>
   <si>
     <t>NetOrbs x Control</t>
@@ -419,58 +437,100 @@
     <t>NetOrbs x Protection_Received</t>
   </si>
   <si>
+    <t>NetOrbs_Damage_Received</t>
+  </si>
+  <si>
+    <t>NetOrbs x Damage_Received</t>
+  </si>
+  <si>
     <t>NetOrbs_Damage</t>
   </si>
   <si>
     <t>NetOrbs x Damage</t>
   </si>
   <si>
-    <t>NetOrbs_ScorePerSecond</t>
+    <t>NetOrbs_ScorePerSecond_1 | NetOrbs_ScorePerSecond_2</t>
   </si>
   <si>
     <t>NetOrbs x ScorePerSecond</t>
   </si>
   <si>
-    <t>First_Orb_TeamRatioREX50</t>
-  </si>
-  <si>
-    <t>First_Orb x TeamRatioREX50</t>
-  </si>
-  <si>
-    <t>Ultimates_3_Damage | Ultimates_2_Damage</t>
-  </si>
-  <si>
-    <t>Ultimates x Damage</t>
-  </si>
-  <si>
-    <t>Num_R_First_Orb</t>
-  </si>
-  <si>
-    <t>Num_R x First_Orb</t>
-  </si>
-  <si>
-    <t>Num_R_Control_1 | Num_R_Control_0.5</t>
-  </si>
-  <si>
-    <t>Num_R x Control</t>
-  </si>
-  <si>
-    <t>Control_1_Damage | Control_0.5_Damage</t>
-  </si>
-  <si>
-    <t>Control x Damage</t>
-  </si>
-  <si>
-    <t>Protection_Received_EnemyRatioREX50</t>
-  </si>
-  <si>
-    <t>Protection_Received x EnemyRatioREX50</t>
-  </si>
-  <si>
-    <t>Protection_Received_Control_Received_0.5 | Protection_Received_Control_Received_2</t>
-  </si>
-  <si>
-    <t>Protection_Received x Control_Received</t>
+    <t>First_Orb_NetOrbs</t>
+  </si>
+  <si>
+    <t>First_Orb x NetOrbs</t>
+  </si>
+  <si>
+    <t>Ultimates_ScorePerSecond_1 | Ultimates_ScorePerSecond_2</t>
+  </si>
+  <si>
+    <t>Ultimates x ScorePerSecond</t>
+  </si>
+  <si>
+    <t>Num_R_ScorePerSecond_1 | Num_R_ScorePerSecond_2</t>
+  </si>
+  <si>
+    <t>Num_R x ScorePerSecond</t>
+  </si>
+  <si>
+    <t>Num_EX1_TeamRatioUltimatesAll20</t>
+  </si>
+  <si>
+    <t>Num_EX1 x TeamRatioUltimatesAll20</t>
+  </si>
+  <si>
+    <t>Num_EX1_TeamRatioREX50</t>
+  </si>
+  <si>
+    <t>Num_EX1 x TeamRatioREX50</t>
+  </si>
+  <si>
+    <t>Num_EX2_EnemyRatioREX50</t>
+  </si>
+  <si>
+    <t>Num_EX2 x EnemyRatioREX50</t>
+  </si>
+  <si>
+    <t>Protection_Received_Damage</t>
+  </si>
+  <si>
+    <t>Protection_Received x Damage</t>
+  </si>
+  <si>
+    <t>Protection_TeamRatioUltimatesAll20</t>
+  </si>
+  <si>
+    <t>Protection x TeamRatioUltimatesAll20</t>
+  </si>
+  <si>
+    <t>Protection_Control_2 | Protection_Control_0.5</t>
+  </si>
+  <si>
+    <t>Protection x Control</t>
+  </si>
+  <si>
+    <t>Damage_Received_ScorePerSecond_1 | Damage_Received_ScorePerSecond_2</t>
+  </si>
+  <si>
+    <t>Damage_Received x ScorePerSecond</t>
+  </si>
+  <si>
+    <t>Damage_Ultimates</t>
+  </si>
+  <si>
+    <t>Damage x Ultimates</t>
+  </si>
+  <si>
+    <t>ScorePerSecond_1_First_Orb | ScorePerSecond_2_First_Orb</t>
+  </si>
+  <si>
+    <t>ScorePerSecond x First_Orb</t>
+  </si>
+  <si>
+    <t>ScorePerSecond_1_Damage | ScorePerSecond_2_Damage</t>
+  </si>
+  <si>
+    <t>ScorePerSecond x Damage</t>
   </si>
   <si>
     <t>Logistic Area Under Curve</t>
@@ -500,106 +560,106 @@
     <t>const</t>
   </si>
   <si>
-    <t>Ultimates_3</t>
-  </si>
-  <si>
-    <t>Ultimates_2</t>
-  </si>
-  <si>
-    <t>Num_EX1_0.5</t>
-  </si>
-  <si>
-    <t>Num_EX1_1</t>
-  </si>
-  <si>
-    <t>Num_EX2_2</t>
-  </si>
-  <si>
-    <t>Num_EX2_3</t>
-  </si>
-  <si>
     <t>Control_Received_0.5</t>
   </si>
   <si>
-    <t>Control_Received_2</t>
-  </si>
-  <si>
-    <t>Control_1</t>
+    <t>Control_Received_3</t>
+  </si>
+  <si>
+    <t>Control_2</t>
   </si>
   <si>
     <t>Control_0.5</t>
   </si>
   <si>
-    <t>TeamRatioUltimatesAll20_Ultimates_3</t>
-  </si>
-  <si>
-    <t>TeamRatioUltimatesAll20_Ultimates_2</t>
-  </si>
-  <si>
-    <t>TeamRatioREX50_Num_EX1_0.5</t>
-  </si>
-  <si>
-    <t>TeamRatioREX50_Num_EX1_1</t>
-  </si>
-  <si>
-    <t>NetHealthShards_Ultimates_3</t>
-  </si>
-  <si>
-    <t>NetHealthShards_Ultimates_2</t>
-  </si>
-  <si>
-    <t>NetHealthShards_Num_EX2_2</t>
-  </si>
-  <si>
-    <t>NetHealthShards_Num_EX2_3</t>
-  </si>
-  <si>
-    <t>NetOrbs_Num_EX1_0.5</t>
-  </si>
-  <si>
-    <t>NetOrbs_Num_EX1_1</t>
-  </si>
-  <si>
-    <t>NetOrbs_Num_EX2_2</t>
-  </si>
-  <si>
-    <t>NetOrbs_Num_EX2_3</t>
-  </si>
-  <si>
-    <t>NetOrbs_Control_Received_0.5</t>
-  </si>
-  <si>
-    <t>NetOrbs_Control_Received_2</t>
-  </si>
-  <si>
-    <t>NetOrbs_Control_1</t>
+    <t>ScorePerSecond_1</t>
+  </si>
+  <si>
+    <t>ScorePerSecond_2</t>
+  </si>
+  <si>
+    <t>TeamRatioUltimatesAll20_Control_Received_0.5</t>
+  </si>
+  <si>
+    <t>TeamRatioUltimatesAll20_Control_Received_3</t>
+  </si>
+  <si>
+    <t>EnemyRatioUltimatesAll20_Control_Received_0.5</t>
+  </si>
+  <si>
+    <t>EnemyRatioUltimatesAll20_Control_Received_3</t>
+  </si>
+  <si>
+    <t>NetHealthShards_Control_Received_0.5</t>
+  </si>
+  <si>
+    <t>NetHealthShards_Control_Received_3</t>
+  </si>
+  <si>
+    <t>NetHealthShards_Control_2</t>
+  </si>
+  <si>
+    <t>NetHealthShards_Control_0.5</t>
+  </si>
+  <si>
+    <t>NetEnergyShards_Control_Received_0.5</t>
+  </si>
+  <si>
+    <t>NetEnergyShards_Control_Received_3</t>
+  </si>
+  <si>
+    <t>NetEnergyShards_ScorePerSecond_1</t>
+  </si>
+  <si>
+    <t>NetEnergyShards_ScorePerSecond_2</t>
+  </si>
+  <si>
+    <t>NetOrbs_Control_2</t>
   </si>
   <si>
     <t>NetOrbs_Control_0.5</t>
   </si>
   <si>
-    <t>Ultimates_3_Damage</t>
-  </si>
-  <si>
-    <t>Ultimates_2_Damage</t>
-  </si>
-  <si>
-    <t>Num_R_Control_1</t>
-  </si>
-  <si>
-    <t>Num_R_Control_0.5</t>
-  </si>
-  <si>
-    <t>Control_1_Damage</t>
-  </si>
-  <si>
-    <t>Control_0.5_Damage</t>
-  </si>
-  <si>
-    <t>Protection_Received_Control_Received_0.5</t>
-  </si>
-  <si>
-    <t>Protection_Received_Control_Received_2</t>
+    <t>NetOrbs_ScorePerSecond_1</t>
+  </si>
+  <si>
+    <t>NetOrbs_ScorePerSecond_2</t>
+  </si>
+  <si>
+    <t>Ultimates_ScorePerSecond_1</t>
+  </si>
+  <si>
+    <t>Ultimates_ScorePerSecond_2</t>
+  </si>
+  <si>
+    <t>Num_R_ScorePerSecond_1</t>
+  </si>
+  <si>
+    <t>Num_R_ScorePerSecond_2</t>
+  </si>
+  <si>
+    <t>Protection_Control_2</t>
+  </si>
+  <si>
+    <t>Protection_Control_0.5</t>
+  </si>
+  <si>
+    <t>Damage_Received_ScorePerSecond_1</t>
+  </si>
+  <si>
+    <t>Damage_Received_ScorePerSecond_2</t>
+  </si>
+  <si>
+    <t>ScorePerSecond_1_First_Orb</t>
+  </si>
+  <si>
+    <t>ScorePerSecond_2_First_Orb</t>
+  </si>
+  <si>
+    <t>ScorePerSecond_1_Damage</t>
+  </si>
+  <si>
+    <t>ScorePerSecond_2_Damage</t>
   </si>
 </sst>
 </file>
@@ -1127,10 +1187,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>50340</v>
+        <v>50274</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>7</v>
@@ -1142,12 +1202,12 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>63560</v>
+        <v>63519</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
         <v>50274</v>
@@ -1162,7 +1222,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>25122</v>
+        <v>25114</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1179,7 +1239,7 @@
         <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>8856</v>
+        <v>8847</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1187,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>66687</v>
+        <v>66645</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>11</v>
@@ -1199,7 +1259,7 @@
         <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>2381</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1207,7 +1267,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>33927</v>
+        <v>33903</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>12</v>
@@ -1219,7 +1279,7 @@
         <v>4</v>
       </c>
       <c r="H8" t="n">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1233,7 +1293,7 @@
         <v>5</v>
       </c>
       <c r="H9" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1241,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>66687</v>
+        <v>66645</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>7</v>
@@ -1253,7 +1313,7 @@
         <v>6</v>
       </c>
       <c r="H10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1261,7 +1321,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>33927</v>
+        <v>33903</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>8</v>
@@ -1298,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>66021</v>
+        <v>65985</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>11</v>
@@ -1312,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>34593</v>
+        <v>34563</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>12</v>
@@ -1334,7 +1394,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>66021</v>
+        <v>65985</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>7</v>
@@ -1348,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>34593</v>
+        <v>34563</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>8</v>
@@ -1373,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>51729</v>
+        <v>51693</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>11</v>
@@ -1387,7 +1447,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>48885</v>
+        <v>48855</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>12</v>
@@ -1700,7 +1760,7 @@
         <v>11</v>
       </c>
       <c r="E61" t="n">
-        <v>224.2975625</v>
+        <v>224.2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1737,7 +1797,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>106.3</v>
+        <v>106.242485</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -1745,7 +1805,7 @@
         <v>11</v>
       </c>
       <c r="E67" t="n">
-        <v>239.6937475</v>
+        <v>239.6</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -1774,7 +1834,7 @@
         <v>8</v>
       </c>
       <c r="E71" t="n">
-        <v>256.9006325</v>
+        <v>256.65158</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -1782,7 +1842,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>343.9034600000001</v>
+        <v>343.800025</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -1790,7 +1850,7 @@
         <v>11</v>
       </c>
       <c r="E73" t="n">
-        <v>458.8695075</v>
+        <v>458.6582825</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -1819,7 +1879,7 @@
         <v>8</v>
       </c>
       <c r="E77" t="n">
-        <v>241.3458525</v>
+        <v>241.20001</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -1835,7 +1895,7 @@
         <v>11</v>
       </c>
       <c r="E79" t="n">
-        <v>530.401575</v>
+        <v>530.0575</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -1909,7 +1969,7 @@
         <v>8</v>
       </c>
       <c r="E89" t="n">
-        <v>2.881905650909366</v>
+        <v>2.982930194805195</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -1917,7 +1977,7 @@
         <v>10</v>
       </c>
       <c r="E90" t="n">
-        <v>5.992517522349935</v>
+        <v>6.130853186813187</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -1925,7 +1985,7 @@
         <v>11</v>
       </c>
       <c r="E91" t="n">
-        <v>8.912445175438595</v>
+        <v>9.065038176663542</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -1933,7 +1993,7 @@
         <v>12</v>
       </c>
       <c r="E92" t="n">
-        <v>38.016288</v>
+        <v>47.52036</v>
       </c>
     </row>
   </sheetData>
@@ -1963,49 +2023,49 @@
   <sheetData>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9520403291274899</v>
+        <v>0.9584977232827914</v>
       </c>
       <c r="F16" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9642817740827315</v>
+        <v>0.9697474595531166</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="B17" t="n">
         <v>0.5</v>
       </c>
       <c r="F17" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9000658815778639</v>
+        <v>0.9108159000144848</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5641080924776898</v>
+        <v>0.5663950318475027</v>
       </c>
       <c r="F18" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7498360069175264</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="F19" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2013,7 +2073,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="F20" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G20" t="n">
         <v>0.5400000000000003</v>
@@ -2031,7 +2091,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2045,18 +2105,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="B1" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="B2" t="n">
-        <v>2.718979350943971</v>
+        <v>3.417463863748256</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2064,7 +2124,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.1642642542168098</v>
+        <v>-0.1874185139665485</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2072,7 +2132,7 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1951919264093943</v>
+        <v>-0.2668223866104354</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2080,7 +2140,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.6097988043369194</v>
+        <v>-0.593178031824026</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2088,7 +2148,7 @@
         <v>16</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6312070443211765</v>
+        <v>0.2920094340546402</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2096,7 +2156,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1030874904035618</v>
+        <v>0.07193591977417764</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2104,7 +2164,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>0.01526142770694057</v>
+        <v>0.1118801164979781</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2112,7 +2172,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>1.128112165047742</v>
+        <v>0.7159180307388884</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2120,359 +2180,359 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.8722344797673008</v>
+        <v>-0.7808103419516659</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5087049125695209</v>
+        <v>0.9899382125280434</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n">
-        <v>0.01656233335717408</v>
+        <v>0.6223861298669516</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B13" t="n">
-        <v>0.002882128224454439</v>
+        <v>0.03359156443974572</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.01704361980560374</v>
+        <v>-0.05688074413533974</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B15" t="n">
-        <v>0.007197924851334104</v>
+        <v>0.01811521866581775</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.3766559742177091</v>
+        <v>0.003161653310757262</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>158</v>
+        <v>26</v>
       </c>
       <c r="B17" t="n">
-        <v>0.01113087365438801</v>
+        <v>-0.01301994691769101</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>159</v>
+        <v>27</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0426019311582172</v>
+        <v>0.007457780856283577</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="B19" t="n">
-        <v>0.09533528210676406</v>
+        <v>-0.1220502233789742</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.03588668187478426</v>
+        <v>8.003459450522332e-08</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.03273083593044844</v>
+        <v>-9.261618933810006e-06</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="B22" t="n">
-        <v>0.002915143625968885</v>
+        <v>0.117246526931059</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.1047313422991163</v>
+        <v>-0.3816549174539136</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="B24" t="n">
-        <v>1.884093154860627e-05</v>
+        <v>0.02878089222201844</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>166</v>
+        <v>81</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.01378365239491896</v>
+        <v>0.16726198671367</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>167</v>
+        <v>83</v>
       </c>
       <c r="B26" t="n">
-        <v>0.3690569729861536</v>
+        <v>-0.00491120372957464</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>89</v>
+        <v>184</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.001169792845656594</v>
+        <v>0.05559690370839038</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>91</v>
+        <v>185</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5431014785836159</v>
+        <v>-7.969573165340019e-08</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.1409536832667917</v>
+        <v>-0.000712618343416773</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>168</v>
+        <v>89</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.02191083083353011</v>
+        <v>-0.007456784603853421</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>169</v>
+        <v>91</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.001027571878625561</v>
+        <v>0.01636011288918145</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>97</v>
+        <v>186</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.01119371841102568</v>
+        <v>0.06381695977087587</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>99</v>
+        <v>187</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.1787728636324834</v>
+        <v>1.367827819954975e-09</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B34" t="n">
-        <v>0.03115769190492727</v>
+        <v>-5.137734456485709e-05</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0006995870689188701</v>
+        <v>-0.01535901834885485</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.09837038915645423</v>
+        <v>0.0651972016002029</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>170</v>
+        <v>101</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1028663911760396</v>
+        <v>0.002294567895171857</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="B38" t="n">
-        <v>0.04432136483178728</v>
+        <v>-0.0005984518020923212</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>109</v>
+        <v>189</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.0002005058494777017</v>
+        <v>1.100194289469319e-09</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>111</v>
+        <v>190</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.02212039822936832</v>
+        <v>-2.972138187600898e-07</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.0007935795889086831</v>
+        <v>0.002276838162502101</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>173</v>
+        <v>107</v>
       </c>
       <c r="B42" t="n">
-        <v>0.001103975024814621</v>
+        <v>-0.0003782177579009302</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>174</v>
+        <v>109</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.0003378639404968147</v>
+        <v>4.191479932400085e-05</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>175</v>
+        <v>111</v>
       </c>
       <c r="B44" t="n">
-        <v>6.380209960561717e-05</v>
+        <v>9.072916751272613e-05</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>117</v>
+        <v>192</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.0002044889784727472</v>
+        <v>-0.004215684823085703</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>119</v>
+        <v>193</v>
       </c>
       <c r="B46" t="n">
-        <v>0.007904354773340604</v>
+        <v>5.931347855580903e-09</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>176</v>
+        <v>115</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.003175652912082133</v>
+        <v>-0.0001353900789442618</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>177</v>
+        <v>117</v>
       </c>
       <c r="B48" t="n">
-        <v>4.199649309567415e-05</v>
+        <v>-4.441836396849738e-06</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.003849012412423553</v>
+        <v>-0.01447416950291061</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0002039942203886547</v>
+        <v>0.0009707147138137893</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.02662611660973897</v>
+        <v>0.01629352261064002</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>181</v>
+        <v>123</v>
       </c>
       <c r="B52" t="n">
-        <v>3.06330024908047e-06</v>
+        <v>-0.002748384439993786</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>182</v>
+        <v>125</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0007552764414253248</v>
+        <v>-0.0001235731358333559</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.02813599489008273</v>
+        <v>-0.002178900450615489</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2480,7 +2540,7 @@
         <v>129</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.0005372436518105661</v>
+        <v>0.001997177986575769</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2488,39 +2548,39 @@
         <v>131</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.0004126379847116753</v>
+        <v>-0.01239927251210503</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>133</v>
+        <v>196</v>
       </c>
       <c r="B57" t="n">
-        <v>0.03214015947986143</v>
+        <v>-5.250307652096507e-07</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="B58" t="n">
-        <v>0.1434259086903349</v>
+        <v>-0.007168823704033773</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="B59" t="n">
-        <v>7.761264253175679e-05</v>
+        <v>-0.001751339615733599</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>185</v>
+        <v>137</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.0004155860428423307</v>
+        <v>0.0008904431025833383</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2528,63 +2588,175 @@
         <v>139</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.07413019843417834</v>
+        <v>-0.000538608382039846</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="B62" t="n">
-        <v>0.003262287296289887</v>
+        <v>0.02882788838377475</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.06920599827429925</v>
+        <v>9.457042941807446e-05</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>188</v>
+        <v>143</v>
       </c>
       <c r="B64" t="n">
-        <v>8.538288591374045e-06</v>
+        <v>-0.02267336550440899</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.0003126140577755942</v>
+        <v>-0.2424048093987073</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.001533698644602058</v>
+        <v>0.01298961720423416</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0001368833947344597</v>
+        <v>-0.1378852801079862</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="B68" t="n">
-        <v>-3.37584371611566e-08</v>
+        <v>0.007856892558882965</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>149</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.006515454325068715</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>151</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.07978448253829974</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>153</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.02248579910402307</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>155</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1.455676478442264e-06</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>157</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.0005634686965620527</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>204</v>
+      </c>
+      <c r="B74" t="n">
+        <v>-2.031620370339444e-09</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>205</v>
+      </c>
+      <c r="B75" t="n">
+        <v>-0.0001991906575654874</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>206</v>
+      </c>
+      <c r="B76" t="n">
+        <v>-0.001211288568911016</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>207</v>
+      </c>
+      <c r="B77" t="n">
+        <v>5.699885450044557e-05</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>163</v>
+      </c>
+      <c r="B78" t="n">
+        <v>-0.0001486805498202309</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>208</v>
+      </c>
+      <c r="B79" t="n">
+        <v>-0.09660169243929996</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>209</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.006252440674020146</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>210</v>
+      </c>
+      <c r="B81" t="n">
+        <v>-0.0002080280653739957</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>211</v>
+      </c>
+      <c r="B82" t="n">
+        <v>-2.49015788859949e-05</v>
       </c>
     </row>
   </sheetData>
@@ -2598,7 +2770,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2630,7 +2802,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="6" t="n">
-        <v>0.005507866307495307</v>
+        <v>0.005333848013966832</v>
       </c>
       <c r="C2" s="6" t="n"/>
       <c r="D2" s="6" t="n"/>
@@ -2645,7 +2817,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="6" t="n">
-        <v>0.005196282249917712</v>
+        <v>0.005333752798095778</v>
       </c>
       <c r="C3" s="6" t="n"/>
       <c r="D3" s="6" t="n"/>
@@ -2705,7 +2877,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="6" t="n">
-        <v>8.160695566781719e-192</v>
+        <v>4.933093631689336e-192</v>
       </c>
       <c r="C7" s="6" t="n"/>
       <c r="D7" s="6" t="n"/>
@@ -2750,7 +2922,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="n">
-        <v>4.923993637317789e-162</v>
+        <v>1.625257060148503e-163</v>
       </c>
       <c r="C10" s="6" t="n"/>
       <c r="D10" s="6" t="n"/>
@@ -2765,7 +2937,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="6" t="n">
-        <v>2.595246234775815e-157</v>
+        <v>2.314471474319787e-159</v>
       </c>
       <c r="C11" s="6" t="n"/>
       <c r="D11" s="6" t="n"/>
@@ -2780,7 +2952,7 @@
         <v>20</v>
       </c>
       <c r="B12" s="6" t="n">
-        <v>5.799019216741125e-246</v>
+        <v>4.370943362617737e-248</v>
       </c>
       <c r="C12" s="6" t="n"/>
       <c r="D12" s="6" t="n"/>
@@ -2795,7 +2967,7 @@
         <v>21</v>
       </c>
       <c r="B13" s="6" t="n">
-        <v>3.24433095652073e-226</v>
+        <v>1.372862400089382e-228</v>
       </c>
       <c r="C13" s="6" t="n"/>
       <c r="D13" s="6" t="n"/>
@@ -2825,7 +2997,7 @@
         <v>23</v>
       </c>
       <c r="B15" s="6" t="n">
-        <v>1.72760321595766e-292</v>
+        <v>3.366303887867064e-296</v>
       </c>
       <c r="C15" s="6" t="n"/>
       <c r="D15" s="6" t="n"/>
@@ -2840,7 +3012,7 @@
         <v>24</v>
       </c>
       <c r="B16" s="6" t="n">
-        <v>1.232501225508396e-261</v>
+        <v>1.357443370297074e-265</v>
       </c>
       <c r="C16" s="6" t="n"/>
       <c r="D16" s="6" t="n"/>
@@ -2855,7 +3027,7 @@
         <v>25</v>
       </c>
       <c r="B17" s="6" t="n">
-        <v>1.113320303127004e-62</v>
+        <v>5.447336879691595e-64</v>
       </c>
       <c r="C17" s="6" t="n"/>
       <c r="D17" s="6" t="n"/>
@@ -2900,7 +3072,7 @@
         <v>28</v>
       </c>
       <c r="B20" s="6" t="n">
-        <v>0.05481753064095489</v>
+        <v>0.05542643919543841</v>
       </c>
       <c r="C20" s="6" t="n"/>
       <c r="D20" s="6" t="n"/>
@@ -3166,6 +3338,28 @@
       <c r="G43" s="6" t="n"/>
       <c r="H43" s="6" t="n"/>
       <c r="I43" s="6" t="n"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="6" t="n"/>
+      <c r="B44" s="6" t="n"/>
+      <c r="C44" s="6" t="n"/>
+      <c r="D44" s="6" t="n"/>
+      <c r="E44" s="6" t="n"/>
+      <c r="F44" s="6" t="n"/>
+      <c r="G44" s="6" t="n"/>
+      <c r="H44" s="6" t="n"/>
+      <c r="I44" s="6" t="n"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="6" t="n"/>
+      <c r="B45" s="6" t="n"/>
+      <c r="C45" s="6" t="n"/>
+      <c r="D45" s="6" t="n"/>
+      <c r="E45" s="6" t="n"/>
+      <c r="F45" s="6" t="n"/>
+      <c r="G45" s="6" t="n"/>
+      <c r="H45" s="6" t="n"/>
+      <c r="I45" s="6" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -3178,7 +3372,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3667,6 +3861,28 @@
       <c r="H43" s="6" t="n"/>
       <c r="I43" s="6" t="n"/>
     </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="6" t="n"/>
+      <c r="B44" s="6" t="n"/>
+      <c r="C44" s="6" t="n"/>
+      <c r="D44" s="6" t="n"/>
+      <c r="E44" s="6" t="n"/>
+      <c r="F44" s="6" t="n"/>
+      <c r="G44" s="6" t="n"/>
+      <c r="H44" s="6" t="n"/>
+      <c r="I44" s="6" t="n"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="6" t="n"/>
+      <c r="B45" s="6" t="n"/>
+      <c r="C45" s="6" t="n"/>
+      <c r="D45" s="6" t="n"/>
+      <c r="E45" s="6" t="n"/>
+      <c r="F45" s="6" t="n"/>
+      <c r="G45" s="6" t="n"/>
+      <c r="H45" s="6" t="n"/>
+      <c r="I45" s="6" t="n"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -3678,7 +3894,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4376,6 +4592,28 @@
       <c r="H43" s="6" t="n"/>
       <c r="I43" s="6" t="n"/>
     </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="6" t="n"/>
+      <c r="B44" s="6" t="n"/>
+      <c r="C44" s="6" t="n"/>
+      <c r="D44" s="6" t="n"/>
+      <c r="E44" s="6" t="n"/>
+      <c r="F44" s="6" t="n"/>
+      <c r="G44" s="6" t="n"/>
+      <c r="H44" s="6" t="n"/>
+      <c r="I44" s="6" t="n"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="6" t="n"/>
+      <c r="B45" s="6" t="n"/>
+      <c r="C45" s="6" t="n"/>
+      <c r="D45" s="6" t="n"/>
+      <c r="E45" s="6" t="n"/>
+      <c r="F45" s="6" t="n"/>
+      <c r="G45" s="6" t="n"/>
+      <c r="H45" s="6" t="n"/>
+      <c r="I45" s="6" t="n"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -4387,7 +4625,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4885,6 +5123,28 @@
       <c r="H43" s="6" t="n"/>
       <c r="I43" s="6" t="n"/>
     </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="6" t="n"/>
+      <c r="B44" s="6" t="n"/>
+      <c r="C44" s="6" t="n"/>
+      <c r="D44" s="6" t="n"/>
+      <c r="E44" s="6" t="n"/>
+      <c r="F44" s="6" t="n"/>
+      <c r="G44" s="6" t="n"/>
+      <c r="H44" s="6" t="n"/>
+      <c r="I44" s="6" t="n"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="6" t="n"/>
+      <c r="B45" s="6" t="n"/>
+      <c r="C45" s="6" t="n"/>
+      <c r="D45" s="6" t="n"/>
+      <c r="E45" s="6" t="n"/>
+      <c r="F45" s="6" t="n"/>
+      <c r="G45" s="6" t="n"/>
+      <c r="H45" s="6" t="n"/>
+      <c r="I45" s="6" t="n"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -4896,7 +5156,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5502,6 +5762,28 @@
       <c r="H43" s="6" t="n"/>
       <c r="I43" s="6" t="n"/>
     </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="6" t="n"/>
+      <c r="B44" s="6" t="n"/>
+      <c r="C44" s="6" t="n"/>
+      <c r="D44" s="6" t="n"/>
+      <c r="E44" s="6" t="n"/>
+      <c r="F44" s="6" t="n"/>
+      <c r="G44" s="6" t="n"/>
+      <c r="H44" s="6" t="n"/>
+      <c r="I44" s="6" t="n"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="6" t="n"/>
+      <c r="B45" s="6" t="n"/>
+      <c r="C45" s="6" t="n"/>
+      <c r="D45" s="6" t="n"/>
+      <c r="E45" s="6" t="n"/>
+      <c r="F45" s="6" t="n"/>
+      <c r="G45" s="6" t="n"/>
+      <c r="H45" s="6" t="n"/>
+      <c r="I45" s="6" t="n"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -5513,7 +5795,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5661,7 +5943,7 @@
         <v>51</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G6" s="6" t="n"/>
       <c r="H6" s="6" t="n"/>
@@ -5724,13 +6006,13 @@
         <v>2</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G9" s="6" t="n"/>
       <c r="H9" s="6" t="n"/>
@@ -5796,10 +6078,10 @@
         <v>57</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G12" s="6" t="n"/>
       <c r="H12" s="6" t="n"/>
@@ -5816,13 +6098,13 @@
         <v>4</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="G13" s="6" t="n"/>
       <c r="H13" s="6" t="n"/>
@@ -5862,13 +6144,13 @@
         <v>2</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G15" s="6" t="n"/>
       <c r="H15" s="6" t="n"/>
@@ -5931,13 +6213,13 @@
         <v>2</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="G18" s="6" t="n"/>
       <c r="H18" s="6" t="n"/>
@@ -5954,13 +6236,13 @@
         <v>4</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="G19" s="6" t="n"/>
       <c r="H19" s="6" t="n"/>
@@ -6000,13 +6282,13 @@
         <v>2</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G21" s="6" t="n"/>
       <c r="H21" s="6" t="n"/>
@@ -6023,13 +6305,13 @@
         <v>4</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="G22" s="6" t="n"/>
       <c r="H22" s="6" t="n"/>
@@ -6069,10 +6351,10 @@
         <v>2</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>52</v>
@@ -6092,13 +6374,13 @@
         <v>4</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G25" s="6" t="n"/>
       <c r="H25" s="6" t="n"/>
@@ -6138,13 +6420,13 @@
         <v>2</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G27" s="6" t="n"/>
       <c r="H27" s="6" t="n"/>
@@ -6161,13 +6443,13 @@
         <v>4</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G28" s="6" t="n"/>
       <c r="H28" s="6" t="n"/>
@@ -6207,13 +6489,13 @@
         <v>2</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G30" s="6" t="n"/>
       <c r="H30" s="6" t="n"/>
@@ -6276,13 +6558,13 @@
         <v>2</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="G33" s="6" t="n"/>
       <c r="H33" s="6" t="n"/>
@@ -6345,13 +6627,13 @@
         <v>2</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G36" s="6" t="n"/>
       <c r="H36" s="6" t="n"/>
@@ -6414,13 +6696,13 @@
         <v>2</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="G39" s="6" t="n"/>
       <c r="H39" s="6" t="n"/>
@@ -6483,13 +6765,13 @@
         <v>2</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G42" s="6" t="n"/>
       <c r="H42" s="6" t="n"/>
@@ -6506,17 +6788,39 @@
         <v>4</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="G43" s="6" t="n"/>
       <c r="H43" s="6" t="n"/>
       <c r="I43" s="6" t="n"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="6" t="n"/>
+      <c r="B44" s="6" t="n"/>
+      <c r="C44" s="6" t="n"/>
+      <c r="D44" s="6" t="n"/>
+      <c r="E44" s="6" t="n"/>
+      <c r="F44" s="6" t="n"/>
+      <c r="G44" s="6" t="n"/>
+      <c r="H44" s="6" t="n"/>
+      <c r="I44" s="6" t="n"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="6" t="n"/>
+      <c r="B45" s="6" t="n"/>
+      <c r="C45" s="6" t="n"/>
+      <c r="D45" s="6" t="n"/>
+      <c r="E45" s="6" t="n"/>
+      <c r="F45" s="6" t="n"/>
+      <c r="G45" s="6" t="n"/>
+      <c r="H45" s="6" t="n"/>
+      <c r="I45" s="6" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -6529,7 +6833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6546,7 +6850,7 @@
         <v>30</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C1" s="6" t="n"/>
       <c r="D1" s="6" t="n"/>
@@ -6606,7 +6910,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="C5" s="6" t="n"/>
       <c r="D5" s="6" t="n"/>
@@ -6636,7 +6940,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="C7" s="6" t="n"/>
       <c r="D7" s="6" t="n"/>
@@ -6651,7 +6955,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="C8" s="6" t="n"/>
       <c r="D8" s="6" t="n"/>
@@ -6666,7 +6970,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C9" s="6" t="n"/>
       <c r="D9" s="6" t="n"/>
@@ -6681,7 +6985,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C10" s="6" t="n"/>
       <c r="D10" s="6" t="n"/>
@@ -6756,7 +7060,7 @@
         <v>29</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="C15" s="6" t="n"/>
       <c r="D15" s="6" t="n"/>
@@ -7073,6 +7377,28 @@
       <c r="G43" s="6" t="n"/>
       <c r="H43" s="6" t="n"/>
       <c r="I43" s="6" t="n"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="6" t="n"/>
+      <c r="B44" s="6" t="n"/>
+      <c r="C44" s="6" t="n"/>
+      <c r="D44" s="6" t="n"/>
+      <c r="E44" s="6" t="n"/>
+      <c r="F44" s="6" t="n"/>
+      <c r="G44" s="6" t="n"/>
+      <c r="H44" s="6" t="n"/>
+      <c r="I44" s="6" t="n"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="6" t="n"/>
+      <c r="B45" s="6" t="n"/>
+      <c r="C45" s="6" t="n"/>
+      <c r="D45" s="6" t="n"/>
+      <c r="E45" s="6" t="n"/>
+      <c r="F45" s="6" t="n"/>
+      <c r="G45" s="6" t="n"/>
+      <c r="H45" s="6" t="n"/>
+      <c r="I45" s="6" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -7085,7 +7411,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7100,10 +7426,10 @@
     <row r="1" spans="1:9">
       <c r="A1" s="6" t="n"/>
       <c r="B1" s="5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D1" s="6" t="n"/>
       <c r="E1" s="6" t="n"/>
@@ -7117,10 +7443,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D2" s="6" t="n"/>
       <c r="E2" s="6" t="n"/>
@@ -7134,10 +7460,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D3" s="6" t="n"/>
       <c r="E3" s="6" t="n"/>
@@ -7151,10 +7477,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D4" s="6" t="n"/>
       <c r="E4" s="6" t="n"/>
@@ -7168,10 +7494,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D5" s="6" t="n"/>
       <c r="E5" s="6" t="n"/>
@@ -7185,10 +7511,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D6" s="6" t="n"/>
       <c r="E6" s="6" t="n"/>
@@ -7202,10 +7528,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D7" s="6" t="n"/>
       <c r="E7" s="6" t="n"/>
@@ -7219,10 +7545,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D8" s="6" t="n"/>
       <c r="E8" s="6" t="n"/>
@@ -7236,10 +7562,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D9" s="6" t="n"/>
       <c r="E9" s="6" t="n"/>
@@ -7253,10 +7579,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D10" s="6" t="n"/>
       <c r="E10" s="6" t="n"/>
@@ -7270,10 +7596,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D11" s="6" t="n"/>
       <c r="E11" s="6" t="n"/>
@@ -7287,10 +7613,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D12" s="6" t="n"/>
       <c r="E12" s="6" t="n"/>
@@ -7304,10 +7630,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D13" s="6" t="n"/>
       <c r="E13" s="6" t="n"/>
@@ -7321,10 +7647,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D14" s="6" t="n"/>
       <c r="E14" s="6" t="n"/>
@@ -7338,10 +7664,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D15" s="6" t="n"/>
       <c r="E15" s="6" t="n"/>
@@ -7355,10 +7681,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D16" s="6" t="n"/>
       <c r="E16" s="6" t="n"/>
@@ -7372,10 +7698,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D17" s="6" t="n"/>
       <c r="E17" s="6" t="n"/>
@@ -7389,10 +7715,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D18" s="6" t="n"/>
       <c r="E18" s="6" t="n"/>
@@ -7406,10 +7732,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D19" s="6" t="n"/>
       <c r="E19" s="6" t="n"/>
@@ -7423,10 +7749,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D20" s="6" t="n"/>
       <c r="E20" s="6" t="n"/>
@@ -7440,10 +7766,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D21" s="6" t="n"/>
       <c r="E21" s="6" t="n"/>
@@ -7457,10 +7783,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D22" s="6" t="n"/>
       <c r="E22" s="6" t="n"/>
@@ -7474,10 +7800,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D23" s="6" t="n"/>
       <c r="E23" s="6" t="n"/>
@@ -7491,10 +7817,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D24" s="6" t="n"/>
       <c r="E24" s="6" t="n"/>
@@ -7508,10 +7834,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D25" s="6" t="n"/>
       <c r="E25" s="6" t="n"/>
@@ -7525,10 +7851,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D26" s="6" t="n"/>
       <c r="E26" s="6" t="n"/>
@@ -7542,10 +7868,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D27" s="6" t="n"/>
       <c r="E27" s="6" t="n"/>
@@ -7559,10 +7885,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D28" s="6" t="n"/>
       <c r="E28" s="6" t="n"/>
@@ -7576,10 +7902,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D29" s="6" t="n"/>
       <c r="E29" s="6" t="n"/>
@@ -7593,10 +7919,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D30" s="6" t="n"/>
       <c r="E30" s="6" t="n"/>
@@ -7610,10 +7936,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D31" s="6" t="n"/>
       <c r="E31" s="6" t="n"/>
@@ -7623,9 +7949,15 @@
       <c r="I31" s="6" t="n"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="6" t="n"/>
-      <c r="B32" s="6" t="n"/>
-      <c r="C32" s="6" t="n"/>
+      <c r="A32" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="D32" s="6" t="n"/>
       <c r="E32" s="6" t="n"/>
       <c r="F32" s="6" t="n"/>
@@ -7634,9 +7966,15 @@
       <c r="I32" s="6" t="n"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="6" t="n"/>
-      <c r="B33" s="6" t="n"/>
-      <c r="C33" s="6" t="n"/>
+      <c r="A33" s="5" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>144</v>
+      </c>
       <c r="D33" s="6" t="n"/>
       <c r="E33" s="6" t="n"/>
       <c r="F33" s="6" t="n"/>
@@ -7645,9 +7983,15 @@
       <c r="I33" s="6" t="n"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="6" t="n"/>
-      <c r="B34" s="6" t="n"/>
-      <c r="C34" s="6" t="n"/>
+      <c r="A34" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="D34" s="6" t="n"/>
       <c r="E34" s="6" t="n"/>
       <c r="F34" s="6" t="n"/>
@@ -7656,9 +8000,15 @@
       <c r="I34" s="6" t="n"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="6" t="n"/>
-      <c r="B35" s="6" t="n"/>
-      <c r="C35" s="6" t="n"/>
+      <c r="A35" s="5" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>148</v>
+      </c>
       <c r="D35" s="6" t="n"/>
       <c r="E35" s="6" t="n"/>
       <c r="F35" s="6" t="n"/>
@@ -7667,9 +8017,15 @@
       <c r="I35" s="6" t="n"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="6" t="n"/>
-      <c r="B36" s="6" t="n"/>
-      <c r="C36" s="6" t="n"/>
+      <c r="A36" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>150</v>
+      </c>
       <c r="D36" s="6" t="n"/>
       <c r="E36" s="6" t="n"/>
       <c r="F36" s="6" t="n"/>
@@ -7678,9 +8034,15 @@
       <c r="I36" s="6" t="n"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="6" t="n"/>
-      <c r="B37" s="6" t="n"/>
-      <c r="C37" s="6" t="n"/>
+      <c r="A37" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="D37" s="6" t="n"/>
       <c r="E37" s="6" t="n"/>
       <c r="F37" s="6" t="n"/>
@@ -7689,9 +8051,15 @@
       <c r="I37" s="6" t="n"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="6" t="n"/>
-      <c r="B38" s="6" t="n"/>
-      <c r="C38" s="6" t="n"/>
+      <c r="A38" s="5" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>154</v>
+      </c>
       <c r="D38" s="6" t="n"/>
       <c r="E38" s="6" t="n"/>
       <c r="F38" s="6" t="n"/>
@@ -7700,9 +8068,15 @@
       <c r="I38" s="6" t="n"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="6" t="n"/>
-      <c r="B39" s="6" t="n"/>
-      <c r="C39" s="6" t="n"/>
+      <c r="A39" s="5" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>156</v>
+      </c>
       <c r="D39" s="6" t="n"/>
       <c r="E39" s="6" t="n"/>
       <c r="F39" s="6" t="n"/>
@@ -7711,9 +8085,15 @@
       <c r="I39" s="6" t="n"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="6" t="n"/>
-      <c r="B40" s="6" t="n"/>
-      <c r="C40" s="6" t="n"/>
+      <c r="A40" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>158</v>
+      </c>
       <c r="D40" s="6" t="n"/>
       <c r="E40" s="6" t="n"/>
       <c r="F40" s="6" t="n"/>
@@ -7722,9 +8102,15 @@
       <c r="I40" s="6" t="n"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="6" t="n"/>
-      <c r="B41" s="6" t="n"/>
-      <c r="C41" s="6" t="n"/>
+      <c r="A41" s="5" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>160</v>
+      </c>
       <c r="D41" s="6" t="n"/>
       <c r="E41" s="6" t="n"/>
       <c r="F41" s="6" t="n"/>
@@ -7733,9 +8119,15 @@
       <c r="I41" s="6" t="n"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="6" t="n"/>
-      <c r="B42" s="6" t="n"/>
-      <c r="C42" s="6" t="n"/>
+      <c r="A42" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>162</v>
+      </c>
       <c r="D42" s="6" t="n"/>
       <c r="E42" s="6" t="n"/>
       <c r="F42" s="6" t="n"/>
@@ -7744,9 +8136,15 @@
       <c r="I42" s="6" t="n"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="6" t="n"/>
-      <c r="B43" s="6" t="n"/>
-      <c r="C43" s="6" t="n"/>
+      <c r="A43" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>164</v>
+      </c>
       <c r="D43" s="6" t="n"/>
       <c r="E43" s="6" t="n"/>
       <c r="F43" s="6" t="n"/>
@@ -7754,6 +8152,40 @@
       <c r="H43" s="6" t="n"/>
       <c r="I43" s="6" t="n"/>
     </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D44" s="6" t="n"/>
+      <c r="E44" s="6" t="n"/>
+      <c r="F44" s="6" t="n"/>
+      <c r="G44" s="6" t="n"/>
+      <c r="H44" s="6" t="n"/>
+      <c r="I44" s="6" t="n"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D45" s="6" t="n"/>
+      <c r="E45" s="6" t="n"/>
+      <c r="F45" s="6" t="n"/>
+      <c r="G45" s="6" t="n"/>
+      <c r="H45" s="6" t="n"/>
+      <c r="I45" s="6" t="n"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
